--- a/ResultadosTarea2.xlsx
+++ b/ResultadosTarea2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="4260" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DarkTower" sheetId="5" r:id="rId1"/>
@@ -777,37 +777,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>8.944271909999158E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>4.4721359549995795E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>4.4721359549995795E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>3.6582782835645512E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.4275853739794337E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>4.6256891378474621E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.12796601111232622</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>6.5342941470368537E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>9.1811219357984031E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.28913024746643151</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.2889230001228702</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -819,37 +819,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>8.944271909999158E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>4.4721359549995795E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>4.4721359549995795E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>3.6582782835645512E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.4275853739794337E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>4.6256891378474621E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.12796601111232622</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>6.5342941470368537E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>9.1811219357984031E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.28913024746643151</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.2889230001228702</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -937,37 +937,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.0000000000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.2000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.2599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.66E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8.7800000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.19140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.19980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.70960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.7124000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.8839999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,11 +982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="515482640"/>
-        <c:axId val="487160032"/>
+        <c:axId val="1798976144"/>
+        <c:axId val="1798972336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="515482640"/>
+        <c:axId val="1798976144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,12 +1043,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487160032"/>
+        <c:crossAx val="1798972336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487160032"/>
+        <c:axId val="1798972336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1105,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515482640"/>
+        <c:crossAx val="1798976144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1819,37 +1819,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>3022.2640519981042</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>14386.922958019899</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>7768.0000193100022</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>3020072.3069538916</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>49267.750448949897</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>288457.27766343491</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>635388.85919356486</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>2247313.833884066</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>814084.21032120509</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>33793658.5948774</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>3861007.5719343908</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1861,37 +1861,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>3022.2640519981042</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>14386.922958019899</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>7768.0000193100022</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>3020072.3069538916</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>49267.750448949897</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>288457.27766343491</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>635388.85919356486</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>2247313.833884066</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>814084.21032120509</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>33793658.5948774</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>3861007.5719343908</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1979,37 +1979,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>36225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>33537.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50945.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1453486.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>240135.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>815898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1634868.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3968254.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7890172.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>33341611.199999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>38778969.200000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,11 +2024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517802496"/>
-        <c:axId val="517800864"/>
+        <c:axId val="1805674768"/>
+        <c:axId val="1805673136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517802496"/>
+        <c:axId val="1805674768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,12 +2085,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517800864"/>
+        <c:crossAx val="1805673136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517800864"/>
+        <c:axId val="1805673136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2147,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517802496"/>
+        <c:crossAx val="1805674768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2848,37 +2848,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>1.0954451150103322E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>5.4772255750516611E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1.7320508075688778E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>8.3666002653407553E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>2.6771253239249004E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>5.0172701741086276E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>5.8480766068853942E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>4.1154586621663693E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>9.3968079686668083E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>3.7460646016853422E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.13966674622113981</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2890,37 +2890,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>1.0954451150103322E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>5.4772255750516611E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1.7320508075688778E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>8.3666002653407553E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>2.6771253239249004E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>5.0172701741086276E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>5.8480766068853942E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>4.1154586621663693E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>9.3968079686668083E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>3.7460646016853422E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.13966674622113981</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3008,37 +3008,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.8000000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.2000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.9799999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.7399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.2199999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.22519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.8600000000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.11440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.71239999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,11 +3053,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="490640208"/>
-        <c:axId val="490639664"/>
+        <c:axId val="1805668240"/>
+        <c:axId val="1805671504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="490640208"/>
+        <c:axId val="1805668240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,12 +3114,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490639664"/>
+        <c:crossAx val="1805671504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490639664"/>
+        <c:axId val="1805671504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,7 +3176,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490640208"/>
+        <c:crossAx val="1805668240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3302,7 +3302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3618,11 +3617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235707248"/>
-        <c:axId val="235712688"/>
+        <c:axId val="1805673680"/>
+        <c:axId val="1805664976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235707248"/>
+        <c:axId val="1805673680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,12 +3673,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235712688"/>
+        <c:crossAx val="1805664976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235712688"/>
+        <c:axId val="1805664976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -3738,7 +3737,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235707248"/>
+        <c:crossAx val="1805673680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3760,7 +3759,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3862,7 +3860,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4030,11 +4027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399898480"/>
-        <c:axId val="399897936"/>
+        <c:axId val="1805661712"/>
+        <c:axId val="1805669328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399898480"/>
+        <c:axId val="1805661712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4077,12 +4074,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399897936"/>
+        <c:crossAx val="1805669328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399897936"/>
+        <c:axId val="1805669328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4130,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399898480"/>
+        <c:crossAx val="1805661712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4147,7 +4144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4390,11 +4386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399884880"/>
-        <c:axId val="399890320"/>
+        <c:axId val="1805664432"/>
+        <c:axId val="1805662800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399884880"/>
+        <c:axId val="1805664432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,12 +4447,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399890320"/>
+        <c:crossAx val="1805662800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399890320"/>
+        <c:axId val="1805662800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4513,7 +4509,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399884880"/>
+        <c:crossAx val="1805664432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8379,10 +8375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8573,7 +8569,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A18" si="4">2*A6</f>
+        <f t="shared" ref="A7:A15" si="4">2*A6</f>
         <v>4096</v>
       </c>
       <c r="B7">
@@ -9812,25 +9808,55 @@
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="G33" t="e">
+      <c r="B33">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D33">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E33">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G33">
         <f>AVERAGE(B33:F33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" t="e">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="H33">
         <f>STDEVA(B33:F33)</f>
-        <v>#DIV/0!</v>
+        <v>1.1401754250991382E-3</v>
       </c>
       <c r="J33">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="P33" t="e">
+      <c r="K33">
+        <v>827547</v>
+      </c>
+      <c r="L33">
+        <v>768025</v>
+      </c>
+      <c r="M33">
+        <v>784026</v>
+      </c>
+      <c r="N33">
+        <v>4926878</v>
+      </c>
+      <c r="O33">
+        <v>816026</v>
+      </c>
+      <c r="P33">
         <f>AVERAGE(K33:O33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" t="e">
+        <v>1624500.4</v>
+      </c>
+      <c r="Q33">
         <f>STDEVA(K33:O33)</f>
-        <v>#DIV/0!</v>
+        <v>1846240.1467624139</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -9838,25 +9864,55 @@
         <f>2*A33</f>
         <v>2048</v>
       </c>
-      <c r="G34" t="e">
+      <c r="B34">
+        <v>2E-3</v>
+      </c>
+      <c r="C34">
+        <v>2E-3</v>
+      </c>
+      <c r="D34">
+        <v>2E-3</v>
+      </c>
+      <c r="E34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G34">
         <f t="shared" ref="G34:G43" si="12">AVERAGE(B34:F34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" t="e">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="H34">
         <f t="shared" ref="H34:H43" si="13">STDEVA(B34:F34)</f>
-        <v>#DIV/0!</v>
+        <v>5.4772255750516611E-4</v>
       </c>
       <c r="J34">
         <f>2*J33</f>
         <v>2048</v>
       </c>
-      <c r="P34" t="e">
+      <c r="K34">
+        <v>382733</v>
+      </c>
+      <c r="L34">
+        <v>270089</v>
+      </c>
+      <c r="M34">
+        <v>277769</v>
+      </c>
+      <c r="N34">
+        <v>310410</v>
+      </c>
+      <c r="O34">
+        <v>348171</v>
+      </c>
+      <c r="P34">
         <f t="shared" ref="P34:P43" si="14">AVERAGE(K34:O34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" t="e">
+        <v>317834.40000000002</v>
+      </c>
+      <c r="Q34">
         <f t="shared" ref="Q34:Q43" si="15">STDEVA(K34:O34)</f>
-        <v>#DIV/0!</v>
+        <v>47623.835406233324</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -9864,25 +9920,55 @@
         <f t="shared" ref="A35:A43" si="16">2*A34</f>
         <v>4096</v>
       </c>
-      <c r="G35" t="e">
+      <c r="B35">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" t="e">
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>1.4832396974191326E-3</v>
       </c>
       <c r="J35">
         <f t="shared" ref="J35:J43" si="17">2*J34</f>
         <v>4096</v>
       </c>
-      <c r="P35" t="e">
+      <c r="K35">
+        <v>287369</v>
+      </c>
+      <c r="L35">
+        <v>504976</v>
+      </c>
+      <c r="M35">
+        <v>616980</v>
+      </c>
+      <c r="N35">
+        <v>504976</v>
+      </c>
+      <c r="O35">
+        <v>504336</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" t="e">
+        <v>483727.4</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>120042.2811504346</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -9890,25 +9976,55 @@
         <f t="shared" si="16"/>
         <v>8192</v>
       </c>
-      <c r="G36" t="e">
+      <c r="B36">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.01</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" t="e">
+        <v>1.14E-2</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>1.3416407864998735E-3</v>
       </c>
       <c r="J36">
         <f t="shared" si="17"/>
         <v>8192</v>
       </c>
-      <c r="P36" t="e">
+      <c r="K36">
+        <v>349451</v>
+      </c>
+      <c r="L36" s="3">
+        <v>319370</v>
+      </c>
+      <c r="M36">
+        <v>316170</v>
+      </c>
+      <c r="N36">
+        <v>362892</v>
+      </c>
+      <c r="O36">
+        <v>256648</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" t="e">
+        <v>320906.2</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>41022.922789581884</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -9916,25 +10032,55 @@
         <f t="shared" si="16"/>
         <v>16384</v>
       </c>
-      <c r="G37" t="e">
+      <c r="B37">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" t="e">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>6.8190908484929355E-3</v>
       </c>
       <c r="J37">
         <f t="shared" si="17"/>
         <v>16384</v>
       </c>
-      <c r="P37" t="e">
+      <c r="K37" s="3">
+        <v>464655</v>
+      </c>
+      <c r="L37">
+        <v>3278825</v>
+      </c>
+      <c r="M37">
+        <v>478096</v>
+      </c>
+      <c r="N37">
+        <v>481295</v>
+      </c>
+      <c r="O37">
+        <v>463375</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" t="e">
+        <v>1033249.2</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1255340.1088960713</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -9942,25 +10088,55 @@
         <f t="shared" si="16"/>
         <v>32768</v>
       </c>
-      <c r="G38" t="e">
+      <c r="B38">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C38">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D38">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.03</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" t="e">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>7.0498226928058091E-3</v>
       </c>
       <c r="J38">
         <f t="shared" si="17"/>
         <v>32768</v>
       </c>
-      <c r="P38" t="e">
+      <c r="K38">
+        <v>1310122</v>
+      </c>
+      <c r="L38">
+        <v>1314603</v>
+      </c>
+      <c r="M38">
+        <v>6285001</v>
+      </c>
+      <c r="N38">
+        <v>2465999</v>
+      </c>
+      <c r="O38">
+        <v>4626068</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" t="e">
+        <v>3200358.6</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>2191803.9737935737</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -9968,25 +10144,55 @@
         <f t="shared" si="16"/>
         <v>65536</v>
       </c>
-      <c r="G39" t="e">
+      <c r="B39">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C39">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F39">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" t="e">
+        <v>0.2266</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.2529039587641352E-2</v>
       </c>
       <c r="J39">
         <f t="shared" si="17"/>
         <v>65536</v>
       </c>
-      <c r="P39" t="e">
+      <c r="K39">
+        <v>7510641</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4380940</v>
+      </c>
+      <c r="M39">
+        <v>2393037</v>
+      </c>
+      <c r="N39">
+        <v>2130628</v>
+      </c>
+      <c r="O39">
+        <v>2156869</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" t="e">
+        <v>3714423</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>2320342.5415630988</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -9994,25 +10200,55 @@
         <f t="shared" si="16"/>
         <v>131072</v>
       </c>
-      <c r="G40" t="e">
+      <c r="B40">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C40">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.245</v>
+      </c>
+      <c r="F40">
+        <v>0.247</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" t="e">
+        <v>0.26579999999999993</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>3.9770592150482661E-2</v>
       </c>
       <c r="J40">
         <f t="shared" si="17"/>
         <v>131072</v>
       </c>
-      <c r="P40" t="e">
+      <c r="K40" s="3">
+        <v>7079906</v>
+      </c>
+      <c r="L40" s="3">
+        <v>6271561</v>
+      </c>
+      <c r="M40">
+        <v>5358252</v>
+      </c>
+      <c r="N40">
+        <v>7947134</v>
+      </c>
+      <c r="O40">
+        <v>8845083</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" t="e">
+        <v>7100387.2000000002</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1367785.7089367849</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -10020,25 +10256,55 @@
         <f t="shared" si="16"/>
         <v>262144</v>
       </c>
-      <c r="G41" t="e">
+      <c r="B41">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="C41">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.73</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" t="e">
+        <v>0.6893999999999999</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.8960156037785372E-2</v>
       </c>
       <c r="J41">
         <f t="shared" si="17"/>
         <v>262144</v>
       </c>
-      <c r="P41" t="e">
+      <c r="K41" s="3">
+        <v>17274153</v>
+      </c>
+      <c r="L41" s="3">
+        <v>9039650</v>
+      </c>
+      <c r="M41">
+        <v>7559922</v>
+      </c>
+      <c r="N41">
+        <v>9501104</v>
+      </c>
+      <c r="O41">
+        <v>7860092</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q41" t="e">
+        <v>10246984.199999999</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>4009758.4755202155</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -10046,25 +10312,55 @@
         <f t="shared" si="16"/>
         <v>524288</v>
       </c>
-      <c r="G42" t="e">
+      <c r="B42">
+        <v>2.153</v>
+      </c>
+      <c r="C42">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="D42">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="E42">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="F42">
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" t="e">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>9.0473753100001358E-2</v>
       </c>
       <c r="J42">
         <f t="shared" si="17"/>
         <v>524288</v>
       </c>
-      <c r="P42" t="e">
+      <c r="K42" s="3">
+        <v>63196263</v>
+      </c>
+      <c r="L42" s="3">
+        <v>18467151</v>
+      </c>
+      <c r="M42" s="3">
+        <v>28991008</v>
+      </c>
+      <c r="N42" s="3">
+        <v>22505040</v>
+      </c>
+      <c r="O42" s="3">
+        <v>23061218</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" t="e">
+        <v>31244136</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>18252385.441296969</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -10072,47 +10368,89 @@
         <f t="shared" si="16"/>
         <v>1048576</v>
       </c>
-      <c r="G43" t="e">
+      <c r="B43">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="C43">
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="D43">
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="E43">
+        <v>2.3889999999999998</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" t="e">
+        <v>2.3937999999999997</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.2236960095319473E-2</v>
       </c>
       <c r="J43">
         <f t="shared" si="17"/>
         <v>1048576</v>
       </c>
-      <c r="P43" t="e">
+      <c r="K43" s="3">
+        <v>39552625</v>
+      </c>
+      <c r="L43" s="3">
+        <v>38534993</v>
+      </c>
+      <c r="M43" s="3">
+        <v>40993952</v>
+      </c>
+      <c r="N43" s="3">
+        <v>43865723</v>
+      </c>
+      <c r="O43" s="3">
+        <v>54138692</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q43" t="e">
+        <v>43417197</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6320494.0388099412</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E49" s="3"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10121,10 +10459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="D35" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45:R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10222,11 +10560,11 @@
         <v>2E-3</v>
       </c>
       <c r="G5">
-        <f>AVERAGE(B5:F5)</f>
+        <f t="shared" ref="G5:G15" si="0">AVERAGE(B5:F5)</f>
         <v>1.8000000000000002E-3</v>
       </c>
       <c r="H5">
-        <f>STDEVA(B5:F5)</f>
+        <f t="shared" ref="H5:H15" si="1">STDEVA(B5:F5)</f>
         <v>8.3666002653407564E-4</v>
       </c>
       <c r="J5">
@@ -10249,11 +10587,11 @@
         <v>108804</v>
       </c>
       <c r="P5">
-        <f>AVERAGE(K5:O5)</f>
+        <f t="shared" ref="P5:P15" si="2">AVERAGE(K5:O5)</f>
         <v>125060</v>
       </c>
       <c r="Q5">
-        <f>STDEVA(K5:O5)</f>
+        <f t="shared" ref="Q5:Q15" si="3">STDEVA(K5:O5)</f>
         <v>46817.162697028107</v>
       </c>
     </row>
@@ -10278,11 +10616,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G6">
-        <f>AVERAGE(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="H6">
-        <f>STDEVA(B6:F6)</f>
+        <f t="shared" si="1"/>
         <v>4.4721359549995795E-4</v>
       </c>
       <c r="J6">
@@ -10305,17 +10643,17 @@
         <v>104963</v>
       </c>
       <c r="P6">
-        <f>AVERAGE(K6:O6)</f>
+        <f t="shared" si="2"/>
         <v>746391.8</v>
       </c>
       <c r="Q6">
-        <f>STDEVA(K6:O6)</f>
+        <f t="shared" si="3"/>
         <v>1357563.7169194676</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A18" si="0">2*A6</f>
+        <f t="shared" ref="A7:A15" si="4">2*A6</f>
         <v>4096</v>
       </c>
       <c r="B7">
@@ -10334,15 +10672,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G7">
-        <f>AVERAGE(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>8.199999999999999E-3</v>
       </c>
       <c r="H7">
-        <f>STDEVA(B7:F7)</f>
+        <f t="shared" si="1"/>
         <v>2.9495762407505265E-3</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J15" si="1">2*J6</f>
+        <f t="shared" ref="J7:J15" si="5">2*J6</f>
         <v>4096</v>
       </c>
       <c r="K7">
@@ -10361,17 +10699,17 @@
         <v>270089</v>
       </c>
       <c r="P7">
-        <f>AVERAGE(K7:O7)</f>
+        <f t="shared" si="2"/>
         <v>346763.4</v>
       </c>
       <c r="Q7">
-        <f>STDEVA(K7:O7)</f>
+        <f t="shared" si="3"/>
         <v>70456.432866701303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8192</v>
       </c>
       <c r="B8">
@@ -10390,15 +10728,15 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G8">
-        <f>AVERAGE(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>1.26E-2</v>
       </c>
       <c r="H8">
-        <f>STDEVA(B8:F8)</f>
+        <f t="shared" si="1"/>
         <v>1.1401754250991382E-3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
       <c r="K8">
@@ -10417,17 +10755,17 @@
         <v>528657</v>
       </c>
       <c r="P8">
-        <f>AVERAGE(K8:O8)</f>
+        <f t="shared" si="2"/>
         <v>728215.4</v>
       </c>
       <c r="Q8">
-        <f>STDEVA(K8:O8)</f>
+        <f t="shared" si="3"/>
         <v>250388.39054017671</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16384</v>
       </c>
       <c r="B9">
@@ -10446,15 +10784,15 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G9">
-        <f>AVERAGE(B9:F9)</f>
+        <f t="shared" si="0"/>
         <v>3.6199999999999996E-2</v>
       </c>
       <c r="H9">
-        <f>STDEVA(B9:F9)</f>
+        <f t="shared" si="1"/>
         <v>2.9029295547773806E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="K9">
@@ -10473,17 +10811,17 @@
         <v>2555601</v>
       </c>
       <c r="P9">
-        <f>AVERAGE(K9:O9)</f>
+        <f t="shared" si="2"/>
         <v>2490575.6</v>
       </c>
       <c r="Q9">
-        <f>STDEVA(K9:O9)</f>
+        <f t="shared" si="3"/>
         <v>1014581.1486649552</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>32768</v>
       </c>
       <c r="B10">
@@ -10502,15 +10840,15 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="G10">
-        <f>AVERAGE(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>0.10500000000000001</v>
       </c>
       <c r="H10">
-        <f>STDEVA(B10:F10)</f>
+        <f t="shared" si="1"/>
         <v>9.0459935883240583E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>32768</v>
       </c>
       <c r="K10">
@@ -10529,17 +10867,17 @@
         <v>5436334</v>
       </c>
       <c r="P10">
-        <f>AVERAGE(K10:O10)</f>
+        <f t="shared" si="2"/>
         <v>6285897.2000000002</v>
       </c>
       <c r="Q10">
-        <f>STDEVA(K10:O10)</f>
+        <f t="shared" si="3"/>
         <v>2982987.5079046516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>65536</v>
       </c>
       <c r="B11">
@@ -10558,15 +10896,15 @@
         <v>9.4E-2</v>
       </c>
       <c r="G11">
-        <f>AVERAGE(B11:F11)</f>
+        <f t="shared" si="0"/>
         <v>0.10700000000000001</v>
       </c>
       <c r="H11">
-        <f>STDEVA(B11:F11)</f>
+        <f t="shared" si="1"/>
         <v>8.6023252670426285E-3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>65536</v>
       </c>
       <c r="K11">
@@ -10585,17 +10923,17 @@
         <v>7854971</v>
       </c>
       <c r="P11">
-        <f>AVERAGE(K11:O11)</f>
+        <f t="shared" si="2"/>
         <v>8814490.1999999993</v>
       </c>
       <c r="Q11">
-        <f>STDEVA(K11:O11)</f>
+        <f t="shared" si="3"/>
         <v>880775.56774225971</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>131072</v>
       </c>
       <c r="B12">
@@ -10614,15 +10952,15 @@
         <v>0.189</v>
       </c>
       <c r="G12">
-        <f>AVERAGE(B12:F12)</f>
+        <f t="shared" si="0"/>
         <v>0.21659999999999999</v>
       </c>
       <c r="H12">
-        <f>STDEVA(B12:F12)</f>
+        <f t="shared" si="1"/>
         <v>2.4254896412889505E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>131072</v>
       </c>
       <c r="K12" s="3">
@@ -10641,17 +10979,17 @@
         <v>16810778</v>
       </c>
       <c r="P12">
-        <f>AVERAGE(K12:O12)</f>
+        <f t="shared" si="2"/>
         <v>19019488.600000001</v>
       </c>
       <c r="Q12">
-        <f>STDEVA(K12:O12)</f>
+        <f t="shared" si="3"/>
         <v>1752923.0165785376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>262144</v>
       </c>
       <c r="B13">
@@ -10670,15 +11008,15 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="G13">
-        <f>AVERAGE(B13:F13)</f>
+        <f t="shared" si="0"/>
         <v>0.46860000000000002</v>
       </c>
       <c r="H13">
-        <f>STDEVA(B13:F13)</f>
+        <f t="shared" si="1"/>
         <v>8.3548189687149985E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>262144</v>
       </c>
       <c r="K13" s="3">
@@ -10697,17 +11035,17 @@
         <v>34839515</v>
       </c>
       <c r="P13">
-        <f>AVERAGE(K13:O13)</f>
+        <f t="shared" si="2"/>
         <v>35620596.200000003</v>
       </c>
       <c r="Q13">
-        <f>STDEVA(K13:O13)</f>
+        <f t="shared" si="3"/>
         <v>2367506.7836708939</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>524288</v>
       </c>
       <c r="B14">
@@ -10726,15 +11064,15 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="G14">
-        <f>AVERAGE(B14:F14)</f>
+        <f t="shared" si="0"/>
         <v>0.92400000000000004</v>
       </c>
       <c r="H14">
-        <f>STDEVA(B14:F14)</f>
+        <f t="shared" si="1"/>
         <v>0.10150615744869862</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524288</v>
       </c>
       <c r="K14" s="3">
@@ -10753,17 +11091,17 @@
         <v>66676694</v>
       </c>
       <c r="P14">
-        <f>AVERAGE(K14:O14)</f>
+        <f t="shared" si="2"/>
         <v>72218502.799999997</v>
       </c>
       <c r="Q14">
-        <f>STDEVA(K14:O14)</f>
+        <f t="shared" si="3"/>
         <v>3786080.2014266285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1048576</v>
       </c>
       <c r="B15">
@@ -10782,15 +11120,15 @@
         <v>1.7</v>
       </c>
       <c r="G15">
-        <f>AVERAGE(B15:F15)</f>
+        <f t="shared" si="0"/>
         <v>1.8168</v>
       </c>
       <c r="H15">
-        <f>STDEVA(B15:F15)</f>
+        <f t="shared" si="1"/>
         <v>0.30115062676342003</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1048576</v>
       </c>
       <c r="K15" s="3">
@@ -10809,11 +11147,11 @@
         <v>144887197</v>
       </c>
       <c r="P15">
-        <f>AVERAGE(K15:O15)</f>
+        <f t="shared" si="2"/>
         <v>185835706.80000001</v>
       </c>
       <c r="Q15">
-        <f>STDEVA(K15:O15)</f>
+        <f t="shared" si="3"/>
         <v>52296599.398124769</v>
       </c>
     </row>
@@ -10896,11 +11234,11 @@
         <v>1E-3</v>
       </c>
       <c r="G19">
-        <f>AVERAGE(B19:F19)</f>
+        <f t="shared" ref="G19:G29" si="6">AVERAGE(B19:F19)</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="H19">
-        <f>STDEVA(B19:F19)</f>
+        <f t="shared" ref="H19:H29" si="7">STDEVA(B19:F19)</f>
         <v>4.4721359549995795E-4</v>
       </c>
       <c r="J19">
@@ -10923,11 +11261,11 @@
         <v>2039105</v>
       </c>
       <c r="P19">
-        <f>AVERAGE(K19:O19)</f>
+        <f t="shared" ref="P19:P29" si="8">AVERAGE(K19:O19)</f>
         <v>476559</v>
       </c>
       <c r="Q19">
-        <f>STDEVA(K19:O19)</f>
+        <f t="shared" ref="Q19:Q29" si="9">STDEVA(K19:O19)</f>
         <v>874452.85301295691</v>
       </c>
     </row>
@@ -10952,11 +11290,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G20">
-        <f>AVERAGE(B20:F20)</f>
+        <f t="shared" si="6"/>
         <v>2.4000000000000002E-3</v>
       </c>
       <c r="H20">
-        <f>STDEVA(B20:F20)</f>
+        <f t="shared" si="7"/>
         <v>8.9442719099991591E-4</v>
       </c>
       <c r="J20">
@@ -10979,17 +11317,17 @@
         <v>103043</v>
       </c>
       <c r="P20">
-        <f>AVERAGE(K20:O20)</f>
+        <f t="shared" si="8"/>
         <v>93187</v>
       </c>
       <c r="Q20">
-        <f>STDEVA(K20:O20)</f>
+        <f t="shared" si="9"/>
         <v>5699.2350363886553</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" ref="A21:A29" si="2">2*A20</f>
+        <f t="shared" ref="A21:A29" si="10">2*A20</f>
         <v>4096</v>
       </c>
       <c r="B21">
@@ -11008,15 +11346,15 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G21">
-        <f>AVERAGE(B21:F21)</f>
+        <f t="shared" si="6"/>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="H21">
-        <f>STDEVA(B21:F21)</f>
+        <f t="shared" si="7"/>
         <v>1.3416407864998738E-3</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:J29" si="3">2*J20</f>
+        <f t="shared" ref="J21:J29" si="11">2*J20</f>
         <v>4096</v>
       </c>
       <c r="K21">
@@ -11035,17 +11373,17 @@
         <v>144004</v>
       </c>
       <c r="P21">
-        <f>AVERAGE(K21:O21)</f>
+        <f t="shared" si="8"/>
         <v>181638</v>
       </c>
       <c r="Q21">
-        <f>STDEVA(K21:O21)</f>
+        <f t="shared" si="9"/>
         <v>21156.982807101773</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8192</v>
       </c>
       <c r="B22">
@@ -11064,15 +11402,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(B22:F22)</f>
+        <f t="shared" si="6"/>
         <v>8.6E-3</v>
       </c>
       <c r="H22">
-        <f>STDEVA(B22:F22)</f>
+        <f t="shared" si="7"/>
         <v>2.3021728866442675E-3</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>8192</v>
       </c>
       <c r="K22">
@@ -11091,17 +11429,17 @@
         <v>306570</v>
       </c>
       <c r="P22">
-        <f>AVERAGE(K22:O22)</f>
+        <f t="shared" si="8"/>
         <v>377228.2</v>
       </c>
       <c r="Q22">
-        <f>STDEVA(K22:O22)</f>
+        <f t="shared" si="9"/>
         <v>52036.03861459875</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>16384</v>
       </c>
       <c r="B23">
@@ -11120,15 +11458,15 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G23">
-        <f>AVERAGE(B23:F23)</f>
+        <f t="shared" si="6"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H23">
-        <f>STDEVA(B23:F23)</f>
+        <f t="shared" si="7"/>
         <v>2.7386127875258306E-3</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16384</v>
       </c>
       <c r="K23">
@@ -11147,17 +11485,17 @@
         <v>663061</v>
       </c>
       <c r="P23">
-        <f>AVERAGE(K23:O23)</f>
+        <f t="shared" si="8"/>
         <v>1810106</v>
       </c>
       <c r="Q23">
-        <f>STDEVA(K23:O23)</f>
+        <f t="shared" si="9"/>
         <v>1845930.853735589</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>32768</v>
       </c>
       <c r="B24">
@@ -11176,15 +11514,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G24">
-        <f>AVERAGE(B24:F24)</f>
+        <f t="shared" si="6"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H24">
-        <f>STDEVA(B24:F24)</f>
+        <f t="shared" si="7"/>
         <v>6.2048368229954036E-3</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>32768</v>
       </c>
       <c r="K24">
@@ -11203,17 +11541,17 @@
         <v>2959454</v>
       </c>
       <c r="P24">
-        <f>AVERAGE(K24:O24)</f>
+        <f t="shared" si="8"/>
         <v>2139332.4</v>
       </c>
       <c r="Q24">
-        <f>STDEVA(K24:O24)</f>
+        <f t="shared" si="9"/>
         <v>645309.87461358425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>65536</v>
       </c>
       <c r="B25">
@@ -11232,15 +11570,15 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="G25">
-        <f>AVERAGE(B25:F25)</f>
+        <f t="shared" si="6"/>
         <v>9.4799999999999995E-2</v>
       </c>
       <c r="H25">
-        <f>STDEVA(B25:F25)</f>
+        <f t="shared" si="7"/>
         <v>6.3136360363898081E-2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>65536</v>
       </c>
       <c r="K25">
@@ -11259,17 +11597,17 @@
         <v>2962655</v>
       </c>
       <c r="P25">
-        <f>AVERAGE(K25:O25)</f>
+        <f t="shared" si="8"/>
         <v>4177669.8</v>
       </c>
       <c r="Q25">
-        <f>STDEVA(K25:O25)</f>
+        <f t="shared" si="9"/>
         <v>926445.90891600319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>131072</v>
       </c>
       <c r="B26">
@@ -11288,15 +11626,15 @@
         <v>0.09</v>
       </c>
       <c r="G26">
-        <f>AVERAGE(B26:F26)</f>
+        <f t="shared" si="6"/>
         <v>0.128</v>
       </c>
       <c r="H26">
-        <f>STDEVA(B26:F26)</f>
+        <f t="shared" si="7"/>
         <v>5.221110992882641E-2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>131072</v>
       </c>
       <c r="K26" s="3">
@@ -11315,17 +11653,17 @@
         <v>9026208</v>
       </c>
       <c r="P26">
-        <f>AVERAGE(K26:O26)</f>
+        <f t="shared" si="8"/>
         <v>10546385.4</v>
       </c>
       <c r="Q26">
-        <f>STDEVA(K26:O26)</f>
+        <f t="shared" si="9"/>
         <v>2764386.1617901353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>262144</v>
       </c>
       <c r="B27">
@@ -11344,15 +11682,15 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="G27">
-        <f>AVERAGE(B27:F27)</f>
+        <f t="shared" si="6"/>
         <v>0.24559999999999998</v>
       </c>
       <c r="H27">
-        <f>STDEVA(B27:F27)</f>
+        <f t="shared" si="7"/>
         <v>5.2261840763601179E-2</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>262144</v>
       </c>
       <c r="K27" s="3">
@@ -11371,17 +11709,17 @@
         <v>14642389</v>
       </c>
       <c r="P27">
-        <f>AVERAGE(K27:O27)</f>
+        <f t="shared" si="8"/>
         <v>20026624.800000001</v>
       </c>
       <c r="Q27">
-        <f>STDEVA(K27:O27)</f>
+        <f t="shared" si="9"/>
         <v>5480364.8193483604</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>524288</v>
       </c>
       <c r="B28">
@@ -11400,15 +11738,15 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="G28">
-        <f>AVERAGE(B28:F28)</f>
+        <f t="shared" si="6"/>
         <v>0.50279999999999991</v>
       </c>
       <c r="H28">
-        <f>STDEVA(B28:F28)</f>
+        <f t="shared" si="7"/>
         <v>9.3958501478046491E-2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>524288</v>
       </c>
       <c r="K28" s="3">
@@ -11427,17 +11765,17 @@
         <v>37903293</v>
       </c>
       <c r="P28">
-        <f>AVERAGE(K28:O28)</f>
+        <f t="shared" si="8"/>
         <v>37219879</v>
       </c>
       <c r="Q28">
-        <f>STDEVA(K28:O28)</f>
+        <f t="shared" si="9"/>
         <v>2477100.7929427298</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1048576</v>
       </c>
       <c r="B29">
@@ -11456,15 +11794,15 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(B29:F29)</f>
+        <f t="shared" si="6"/>
         <v>0.97620000000000007</v>
       </c>
       <c r="H29">
-        <f>STDEVA(B29:F29)</f>
+        <f t="shared" si="7"/>
         <v>9.7796727961624572E-2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1048576</v>
       </c>
       <c r="K29" s="3">
@@ -11483,11 +11821,11 @@
         <v>73834682</v>
       </c>
       <c r="P29">
-        <f>AVERAGE(K29:O29)</f>
+        <f t="shared" si="8"/>
         <v>76367627.599999994</v>
       </c>
       <c r="Q29">
-        <f>STDEVA(K29:O29)</f>
+        <f t="shared" si="9"/>
         <v>7425069.8039265126</v>
       </c>
     </row>
@@ -11554,25 +11892,55 @@
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="G33" t="e">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1E-3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2E-3</v>
+      </c>
+      <c r="G33">
         <f>AVERAGE(B33:F33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" t="e">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H33">
         <f>STDEVA(B33:F33)</f>
-        <v>#DIV/0!</v>
+        <v>8.944271909999158E-4</v>
       </c>
       <c r="J33">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="P33" t="e">
+      <c r="K33">
+        <v>36481</v>
+      </c>
+      <c r="L33">
+        <v>35201</v>
+      </c>
+      <c r="M33">
+        <v>32001</v>
+      </c>
+      <c r="N33">
+        <v>37121</v>
+      </c>
+      <c r="O33">
+        <v>40321</v>
+      </c>
+      <c r="P33">
         <f>AVERAGE(K33:O33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" t="e">
+        <v>36225</v>
+      </c>
+      <c r="Q33">
         <f>STDEVA(K33:O33)</f>
-        <v>#DIV/0!</v>
+        <v>3022.2640519981042</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -11580,259 +11948,559 @@
         <f>2*A33</f>
         <v>2048</v>
       </c>
-      <c r="G34" t="e">
-        <f t="shared" ref="G34:G43" si="4">AVERAGE(B34:F34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" t="e">
-        <f t="shared" ref="H34:H43" si="5">STDEVA(B34:F34)</f>
-        <v>#DIV/0!</v>
+      <c r="B34">
+        <v>1E-3</v>
+      </c>
+      <c r="C34">
+        <v>1E-3</v>
+      </c>
+      <c r="D34">
+        <v>1E-3</v>
+      </c>
+      <c r="E34">
+        <v>2E-3</v>
+      </c>
+      <c r="F34">
+        <v>1E-3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G43" si="12">AVERAGE(B34:F34)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H43" si="13">STDEVA(B34:F34)</f>
+        <v>4.4721359549995795E-4</v>
       </c>
       <c r="J34">
         <f>2*J33</f>
         <v>2048</v>
       </c>
-      <c r="P34" t="e">
-        <f t="shared" ref="P34:P43" si="6">AVERAGE(K34:O34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" t="e">
-        <f t="shared" ref="Q34:Q43" si="7">STDEVA(K34:O34)</f>
-        <v>#DIV/0!</v>
+      <c r="K34">
+        <v>27521</v>
+      </c>
+      <c r="L34">
+        <v>30721</v>
+      </c>
+      <c r="M34">
+        <v>58882</v>
+      </c>
+      <c r="N34">
+        <v>23681</v>
+      </c>
+      <c r="O34">
+        <v>26881</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P43" si="14">AVERAGE(K34:O34)</f>
+        <v>33537.199999999997</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q43" si="15">STDEVA(K34:O34)</f>
+        <v>14386.922958019899</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" ref="A35:A43" si="8">2*A34</f>
+        <f t="shared" ref="A35:A43" si="16">2*A34</f>
         <v>4096</v>
       </c>
-      <c r="G35" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B35">
+        <v>2E-3</v>
+      </c>
+      <c r="C35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>2E-3</v>
+      </c>
+      <c r="E35">
+        <v>2E-3</v>
+      </c>
+      <c r="F35">
+        <v>2E-3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="13"/>
+        <v>4.4721359549995795E-4</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J43" si="9">2*J34</f>
+        <f t="shared" ref="J35:J43" si="17">2*J34</f>
         <v>4096</v>
       </c>
-      <c r="P35" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K35">
+        <v>55042</v>
+      </c>
+      <c r="L35">
+        <v>44801</v>
+      </c>
+      <c r="M35">
+        <v>52482</v>
+      </c>
+      <c r="N35">
+        <v>60802</v>
+      </c>
+      <c r="O35">
+        <v>41601</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="14"/>
+        <v>50945.599999999999</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="15"/>
+        <v>7768.0000193100022</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8192</v>
       </c>
-      <c r="G36" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B36">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F36">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="12"/>
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>3.6582782835645512E-2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8192</v>
       </c>
-      <c r="P36" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K36">
+        <v>6855899</v>
+      </c>
+      <c r="L36">
+        <v>125444</v>
+      </c>
+      <c r="M36">
+        <v>88323</v>
+      </c>
+      <c r="N36">
+        <v>96003</v>
+      </c>
+      <c r="O36">
+        <v>101763</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="14"/>
+        <v>1453486.4</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="15"/>
+        <v>3020072.3069538916</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>16384</v>
       </c>
-      <c r="G37" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E37">
+        <v>0.01</v>
+      </c>
+      <c r="F37">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="12"/>
+        <v>1.66E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="13"/>
+        <v>1.4275853739794337E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>16384</v>
       </c>
-      <c r="P37" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K37">
+        <v>276489</v>
+      </c>
+      <c r="L37">
+        <v>306569</v>
+      </c>
+      <c r="M37">
+        <v>190726</v>
+      </c>
+      <c r="N37">
+        <v>220807</v>
+      </c>
+      <c r="O37">
+        <v>206086</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="14"/>
+        <v>240135.4</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="15"/>
+        <v>49267.750448949897</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>32768</v>
       </c>
-      <c r="G38" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B38">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.107</v>
+      </c>
+      <c r="F38">
+        <v>0.06</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="12"/>
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="13"/>
+        <v>4.6256891378474621E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>32768</v>
       </c>
-      <c r="P38" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K38">
+        <v>1112995</v>
+      </c>
+      <c r="L38">
+        <v>560018</v>
+      </c>
+      <c r="M38">
+        <v>517137</v>
+      </c>
+      <c r="N38">
+        <v>776345</v>
+      </c>
+      <c r="O38">
+        <v>1112995</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="14"/>
+        <v>815898</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="15"/>
+        <v>288457.27766343491</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>65536</v>
       </c>
-      <c r="G39" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B39">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="C39">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.156</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>0.19140000000000001</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="13"/>
+        <v>0.12796601111232622</v>
       </c>
       <c r="J39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>65536</v>
       </c>
-      <c r="P39" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K39">
+        <v>1997504</v>
+      </c>
+      <c r="L39">
+        <v>1063074</v>
+      </c>
+      <c r="M39">
+        <v>1022113</v>
+      </c>
+      <c r="N39">
+        <v>2516560</v>
+      </c>
+      <c r="O39">
+        <v>1575091</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="14"/>
+        <v>1634868.4</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="15"/>
+        <v>635388.85919356486</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>131072</v>
       </c>
-      <c r="G40" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B40">
+        <v>0.313</v>
+      </c>
+      <c r="C40">
+        <v>0.155</v>
+      </c>
+      <c r="D40">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.16</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="12"/>
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="13"/>
+        <v>6.5342941470368537E-2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>131072</v>
       </c>
-      <c r="P40" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K40">
+        <v>7876092</v>
+      </c>
+      <c r="L40">
+        <v>3079778</v>
+      </c>
+      <c r="M40">
+        <v>2464719</v>
+      </c>
+      <c r="N40">
+        <v>2605523</v>
+      </c>
+      <c r="O40">
+        <v>3815162</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="14"/>
+        <v>3968254.8</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="15"/>
+        <v>2247313.833884066</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>262144</v>
       </c>
-      <c r="G41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B41">
+        <v>0.871</v>
+      </c>
+      <c r="C41">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="F41">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="12"/>
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="13"/>
+        <v>9.1811219357984031E-2</v>
       </c>
       <c r="J41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>262144</v>
       </c>
-      <c r="P41" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q41" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K41">
+        <v>7904893</v>
+      </c>
+      <c r="L41">
+        <v>9146533</v>
+      </c>
+      <c r="M41">
+        <v>7144548</v>
+      </c>
+      <c r="N41">
+        <v>7192550</v>
+      </c>
+      <c r="O41" s="3">
+        <v>8062338</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="14"/>
+        <v>7890172.4000000004</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="15"/>
+        <v>814084.21032120509</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>524288</v>
       </c>
-      <c r="G42" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B42">
+        <v>4.1449999999999996</v>
+      </c>
+      <c r="C42">
+        <v>3.4359999999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3.7690000000000001</v>
+      </c>
+      <c r="E42">
+        <v>3.7559999999999998</v>
+      </c>
+      <c r="F42">
+        <v>3.456</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="12"/>
+        <v>3.7124000000000001</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>0.28913024746643151</v>
       </c>
       <c r="J42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>524288</v>
       </c>
-      <c r="P42" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K42" s="3">
+        <v>21396525</v>
+      </c>
+      <c r="L42" s="3">
+        <v>17765049</v>
+      </c>
+      <c r="M42" s="3">
+        <v>93702839</v>
+      </c>
+      <c r="N42" s="3">
+        <v>17052706</v>
+      </c>
+      <c r="O42" s="3">
+        <v>16790937</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="14"/>
+        <v>33341611.199999999</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="15"/>
+        <v>33793658.5948774</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1048576</v>
       </c>
-      <c r="G43" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="B43">
+        <v>4.1559999999999997</v>
+      </c>
+      <c r="C43">
+        <v>4.2380000000000004</v>
+      </c>
+      <c r="D43">
+        <v>3.629</v>
+      </c>
+      <c r="E43">
+        <v>3.718</v>
+      </c>
+      <c r="F43">
+        <v>3.6789999999999998</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="12"/>
+        <v>3.8839999999999995</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>0.2889230001228702</v>
       </c>
       <c r="J43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1048576</v>
       </c>
-      <c r="P43" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q43" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="K43" s="3">
+        <v>36744856</v>
+      </c>
+      <c r="L43" s="3">
+        <v>37000865</v>
+      </c>
+      <c r="M43" s="3">
+        <v>45653301</v>
+      </c>
+      <c r="N43" s="3">
+        <v>37686966</v>
+      </c>
+      <c r="O43" s="3">
+        <v>36808858</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="14"/>
+        <v>38778969.200000003</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="15"/>
+        <v>3861007.5719343908</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -11860,215 +12528,222 @@
         <v>1024</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B58" si="10">G5</f>
+        <f t="shared" ref="B48:B58" si="18">G5</f>
         <v>1.8000000000000002E-3</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:C58" si="11">G19</f>
+        <f t="shared" ref="C48:C58" si="19">G19</f>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="D48" t="e">
-        <f t="shared" ref="D48:D58" si="12">G33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" ref="D48:D58" si="20">G33</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>2*A48</f>
         <v>2048</v>
       </c>
       <c r="B49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="C49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="D49" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="20"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" ref="A50:A58" si="13">2*A49</f>
+        <f t="shared" ref="A50:A58" si="21">2*A49</f>
         <v>4096</v>
       </c>
       <c r="B50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.199999999999999E-3</v>
       </c>
       <c r="C50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="D50" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="20"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>8192</v>
       </c>
       <c r="B51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.26E-2</v>
       </c>
       <c r="C51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8.6E-3</v>
       </c>
-      <c r="D51" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="20"/>
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>16384</v>
       </c>
       <c r="B52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.6199999999999996E-2</v>
       </c>
       <c r="C52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D52" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="20"/>
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>32768</v>
       </c>
       <c r="B53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.10500000000000001</v>
       </c>
       <c r="C53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D53" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="20"/>
+        <v>8.7800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>65536</v>
       </c>
       <c r="B54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.10700000000000001</v>
       </c>
       <c r="C54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.4799999999999995E-2</v>
       </c>
-      <c r="D54" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="D54">
+        <f t="shared" si="20"/>
+        <v>0.19140000000000001</v>
       </c>
       <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>131072</v>
       </c>
       <c r="B55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.21659999999999999</v>
       </c>
       <c r="C55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.128</v>
       </c>
-      <c r="D55" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="D55">
+        <f t="shared" si="20"/>
+        <v>0.19980000000000001</v>
       </c>
       <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>262144</v>
       </c>
       <c r="B56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.46860000000000002</v>
       </c>
       <c r="C56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.24559999999999998</v>
       </c>
-      <c r="D56" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="D56">
+        <f t="shared" si="20"/>
+        <v>0.70960000000000001</v>
       </c>
       <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>524288</v>
       </c>
       <c r="B57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.92400000000000004</v>
       </c>
       <c r="C57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.50279999999999991</v>
       </c>
-      <c r="D57" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="D57">
+        <f t="shared" si="20"/>
+        <v>3.7124000000000001</v>
       </c>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1048576</v>
       </c>
       <c r="B58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.8168</v>
       </c>
       <c r="C58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.97620000000000007</v>
       </c>
-      <c r="D58" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="D58">
+        <f t="shared" si="20"/>
+        <v>3.8839999999999995</v>
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E60" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -12082,22 +12757,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>2^10</f>
         <v>1024</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B74" si="14">P5</f>
+        <f t="shared" ref="B64:B74" si="22">P5</f>
         <v>125060</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C74" si="15">P19</f>
+        <f t="shared" ref="C64:C74" si="23">P19</f>
         <v>476559</v>
       </c>
-      <c r="D64" t="e">
-        <f t="shared" ref="D64:D74" si="16">P33</f>
-        <v>#DIV/0!</v>
+      <c r="D64">
+        <f t="shared" ref="D64:D74" si="24">P33</f>
+        <v>36225</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -12106,178 +12781,178 @@
         <v>2048</v>
       </c>
       <c r="B65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>746391.8</v>
       </c>
       <c r="C65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>93187</v>
       </c>
-      <c r="D65" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D65">
+        <f t="shared" si="24"/>
+        <v>33537.199999999997</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" ref="A66:A74" si="17">2*A65</f>
+        <f t="shared" ref="A66:A74" si="25">2*A65</f>
         <v>4096</v>
       </c>
       <c r="B66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>346763.4</v>
       </c>
       <c r="C66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>181638</v>
       </c>
-      <c r="D66" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D66">
+        <f t="shared" si="24"/>
+        <v>50945.599999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>8192</v>
       </c>
       <c r="B67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>728215.4</v>
       </c>
       <c r="C67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>377228.2</v>
       </c>
-      <c r="D67" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D67">
+        <f t="shared" si="24"/>
+        <v>1453486.4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>16384</v>
       </c>
       <c r="B68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2490575.6</v>
       </c>
       <c r="C68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1810106</v>
       </c>
-      <c r="D68" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D68">
+        <f t="shared" si="24"/>
+        <v>240135.4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>32768</v>
       </c>
       <c r="B69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>6285897.2000000002</v>
       </c>
       <c r="C69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2139332.4</v>
       </c>
-      <c r="D69" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D69">
+        <f t="shared" si="24"/>
+        <v>815898</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>65536</v>
       </c>
       <c r="B70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>8814490.1999999993</v>
       </c>
       <c r="C70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>4177669.8</v>
       </c>
-      <c r="D70" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D70">
+        <f t="shared" si="24"/>
+        <v>1634868.4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>131072</v>
       </c>
       <c r="B71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>19019488.600000001</v>
       </c>
       <c r="C71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>10546385.4</v>
       </c>
-      <c r="D71" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D71">
+        <f t="shared" si="24"/>
+        <v>3968254.8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>262144</v>
       </c>
       <c r="B72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>35620596.200000003</v>
       </c>
       <c r="C72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>20026624.800000001</v>
       </c>
-      <c r="D72" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D72">
+        <f t="shared" si="24"/>
+        <v>7890172.4000000004</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>524288</v>
       </c>
       <c r="B73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>72218502.799999997</v>
       </c>
       <c r="C73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>37219879</v>
       </c>
-      <c r="D73" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D73">
+        <f t="shared" si="24"/>
+        <v>33341611.199999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1048576</v>
       </c>
       <c r="B74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>185835706.80000001</v>
       </c>
       <c r="C74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>76367627.599999994</v>
       </c>
-      <c r="D74" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="D74">
+        <f t="shared" si="24"/>
+        <v>38778969.200000003</v>
       </c>
     </row>
   </sheetData>
@@ -12290,8 +12965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12371,11 +13046,11 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G5">
-        <f>AVERAGE(B5:F5)</f>
+        <f t="shared" ref="G5:G15" si="0">AVERAGE(B5:F5)</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H5">
-        <f>STDEVA(B5:F5)</f>
+        <f t="shared" ref="H5:H15" si="1">STDEVA(B5:F5)</f>
         <v>1.414213562373095E-3</v>
       </c>
       <c r="J5">
@@ -12383,21 +13058,21 @@
         <v>1024</v>
       </c>
       <c r="K5">
-        <f>G5</f>
+        <f t="shared" ref="K5:K15" si="2">G5</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="L5">
-        <f>G19</f>
+        <f t="shared" ref="L5:L15" si="3">G19</f>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M5" t="e">
-        <f>G33</f>
-        <v>#DIV/0!</v>
+      <c r="M5">
+        <f t="shared" ref="M5:M15" si="4">G33</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>2*A5</f>
+        <f t="shared" ref="A6:A15" si="5">2*A5</f>
         <v>2048</v>
       </c>
       <c r="B6">
@@ -12416,11 +13091,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G6">
-        <f>AVERAGE(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>5.2000000000000006E-3</v>
       </c>
       <c r="H6">
-        <f>STDEVA(B6:F6)</f>
+        <f t="shared" si="1"/>
         <v>8.3666002653407542E-4</v>
       </c>
       <c r="J6">
@@ -12428,21 +13103,21 @@
         <v>2048</v>
       </c>
       <c r="K6">
-        <f>G6</f>
+        <f t="shared" si="2"/>
         <v>5.2000000000000006E-3</v>
       </c>
       <c r="L6">
-        <f>G20</f>
+        <f t="shared" si="3"/>
         <v>6.7999999999999988E-3</v>
       </c>
-      <c r="M6" t="e">
-        <f>G34</f>
-        <v>#DIV/0!</v>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>2*A6</f>
+        <f t="shared" si="5"/>
         <v>4096</v>
       </c>
       <c r="B7">
@@ -12461,33 +13136,33 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G7">
-        <f>AVERAGE(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>1.06E-2</v>
       </c>
       <c r="H7">
-        <f>STDEVA(B7:F7)</f>
+        <f t="shared" si="1"/>
         <v>3.3615472627943226E-3</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J15" si="0">2*J6</f>
+        <f t="shared" ref="J7:J15" si="6">2*J6</f>
         <v>4096</v>
       </c>
       <c r="K7">
-        <f>G7</f>
+        <f t="shared" si="2"/>
         <v>1.06E-2</v>
       </c>
       <c r="L7">
-        <f>G21</f>
+        <f t="shared" si="3"/>
         <v>1.18E-2</v>
       </c>
-      <c r="M7" t="e">
-        <f>G35</f>
-        <v>#DIV/0!</v>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>2*A7</f>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
       <c r="B8">
@@ -12506,33 +13181,33 @@
         <v>1.6E-2</v>
       </c>
       <c r="G8">
-        <f>AVERAGE(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H8">
-        <f>STDEVA(B8:F8)</f>
+        <f t="shared" si="1"/>
         <v>4.1833001326703704E-3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8192</v>
       </c>
       <c r="K8">
-        <f>G8</f>
+        <f t="shared" si="2"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L8">
-        <f>G22</f>
+        <f t="shared" si="3"/>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="M8" t="e">
-        <f>G36</f>
-        <v>#DIV/0!</v>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>2*A8</f>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="B9">
@@ -12551,33 +13226,33 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="G9">
-        <f>AVERAGE(B9:F9)</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="H9">
-        <f>STDEVA(B9:F9)</f>
+        <f t="shared" si="1"/>
         <v>7.5166481891864624E-3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>16384</v>
       </c>
       <c r="K9">
-        <f>G9</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="L9">
-        <f>G23</f>
+        <f t="shared" si="3"/>
         <v>1.4799999999999999E-2</v>
       </c>
-      <c r="M9" t="e">
-        <f>G37</f>
-        <v>#DIV/0!</v>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>4.9799999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>2*A9</f>
+        <f t="shared" si="5"/>
         <v>32768</v>
       </c>
       <c r="B10">
@@ -12596,33 +13271,33 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G10">
-        <f>AVERAGE(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="H10">
-        <f>STDEVA(B10:F10)</f>
+        <f t="shared" si="1"/>
         <v>3.9749213828703597E-3</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>32768</v>
       </c>
       <c r="K10">
-        <f>G10</f>
+        <f t="shared" si="2"/>
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="L10">
-        <f>G24</f>
+        <f t="shared" si="3"/>
         <v>2.9199999999999997E-2</v>
       </c>
-      <c r="M10" t="e">
-        <f>G38</f>
-        <v>#DIV/0!</v>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>4.7399999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>2*A10</f>
+        <f t="shared" si="5"/>
         <v>65536</v>
       </c>
       <c r="B11">
@@ -12641,33 +13316,33 @@
         <v>0.109</v>
       </c>
       <c r="G11">
-        <f>AVERAGE(B11:F11)</f>
+        <f t="shared" si="0"/>
         <v>7.9199999999999993E-2</v>
       </c>
       <c r="H11">
-        <f>STDEVA(B11:F11)</f>
+        <f t="shared" si="1"/>
         <v>1.9562719647329196E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>65536</v>
       </c>
       <c r="K11">
-        <f>G11</f>
+        <f t="shared" si="2"/>
         <v>7.9199999999999993E-2</v>
       </c>
       <c r="L11">
-        <f>G25</f>
+        <f t="shared" si="3"/>
         <v>3.9400000000000004E-2</v>
       </c>
-      <c r="M11" t="e">
-        <f>G39</f>
-        <v>#DIV/0!</v>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>2.2199999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>2*A11</f>
+        <f t="shared" si="5"/>
         <v>131072</v>
       </c>
       <c r="B12">
@@ -12686,33 +13361,33 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="G12">
-        <f>AVERAGE(B12:F12)</f>
+        <f t="shared" si="0"/>
         <v>0.1176</v>
       </c>
       <c r="H12">
-        <f>STDEVA(B12:F12)</f>
+        <f t="shared" si="1"/>
         <v>1.6890825912311162E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>131072</v>
       </c>
       <c r="K12">
-        <f>G12</f>
+        <f t="shared" si="2"/>
         <v>0.1176</v>
       </c>
       <c r="L12">
-        <f>G26</f>
+        <f t="shared" si="3"/>
         <v>5.3000000000000005E-2</v>
       </c>
-      <c r="M12" t="e">
-        <f>G40</f>
-        <v>#DIV/0!</v>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.22519999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>2*A12</f>
+        <f t="shared" si="5"/>
         <v>262144</v>
       </c>
       <c r="B13">
@@ -12731,33 +13406,33 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="G13">
-        <f>AVERAGE(B13:F13)</f>
+        <f t="shared" si="0"/>
         <v>0.18559999999999999</v>
       </c>
       <c r="H13">
-        <f>STDEVA(B13:F13)</f>
+        <f t="shared" si="1"/>
         <v>3.2230420413019843E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>262144</v>
       </c>
       <c r="K13">
-        <f>G13</f>
+        <f t="shared" si="2"/>
         <v>0.18559999999999999</v>
       </c>
       <c r="L13">
-        <f>G27</f>
+        <f t="shared" si="3"/>
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="M13" t="e">
-        <f>G41</f>
-        <v>#DIV/0!</v>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>8.8600000000000012E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>2*A13</f>
+        <f t="shared" si="5"/>
         <v>524288</v>
       </c>
       <c r="B14">
@@ -12776,33 +13451,33 @@
         <v>0.377</v>
       </c>
       <c r="G14">
-        <f>AVERAGE(B14:F14)</f>
+        <f t="shared" si="0"/>
         <v>0.3458</v>
       </c>
       <c r="H14">
-        <f>STDEVA(B14:F14)</f>
+        <f t="shared" si="1"/>
         <v>2.8146047679914136E-2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>524288</v>
       </c>
       <c r="K14">
-        <f>G14</f>
+        <f t="shared" si="2"/>
         <v>0.3458</v>
       </c>
       <c r="L14">
-        <f>G28</f>
+        <f t="shared" si="3"/>
         <v>0.14899999999999999</v>
       </c>
-      <c r="M14" t="e">
-        <f>G42</f>
-        <v>#DIV/0!</v>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0.11440000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>2*A14</f>
+        <f t="shared" si="5"/>
         <v>1048576</v>
       </c>
       <c r="B15">
@@ -12821,28 +13496,28 @@
         <v>0.496</v>
       </c>
       <c r="G15">
-        <f>AVERAGE(B15:F15)</f>
+        <f t="shared" si="0"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="H15">
-        <f>STDEVA(B15:F15)</f>
+        <f t="shared" si="1"/>
         <v>0.18528221717153556</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1048576</v>
       </c>
       <c r="K15">
-        <f>G15</f>
+        <f t="shared" si="2"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="L15">
-        <f>G29</f>
+        <f t="shared" si="3"/>
         <v>0.2452</v>
       </c>
-      <c r="M15" t="e">
-        <f>G43</f>
-        <v>#DIV/0!</v>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0.71239999999999992</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12897,17 +13572,17 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G19">
-        <f>AVERAGE(B19:F19)</f>
+        <f t="shared" ref="G19:G29" si="7">AVERAGE(B19:F19)</f>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="H19">
-        <f>STDEVA(B19:F19)</f>
+        <f t="shared" ref="H19:H29" si="8">STDEVA(B19:F19)</f>
         <v>8.9442719099991591E-4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>2*A19</f>
+        <f t="shared" ref="A20:A29" si="9">2*A19</f>
         <v>2048</v>
       </c>
       <c r="B20">
@@ -12926,17 +13601,17 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G20">
-        <f>AVERAGE(B20:F20)</f>
+        <f t="shared" si="7"/>
         <v>6.7999999999999988E-3</v>
       </c>
       <c r="H20">
-        <f>STDEVA(B20:F20)</f>
+        <f t="shared" si="8"/>
         <v>4.8166378315169208E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>2*A20</f>
+        <f t="shared" si="9"/>
         <v>4096</v>
       </c>
       <c r="B21">
@@ -12955,17 +13630,17 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G21">
-        <f>AVERAGE(B21:F21)</f>
+        <f t="shared" si="7"/>
         <v>1.18E-2</v>
       </c>
       <c r="H21">
-        <f>STDEVA(B21:F21)</f>
+        <f t="shared" si="8"/>
         <v>9.8336158151516185E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>2*A21</f>
+        <f t="shared" si="9"/>
         <v>8192</v>
       </c>
       <c r="B22">
@@ -12984,17 +13659,17 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(B22:F22)</f>
+        <f t="shared" si="7"/>
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H22">
-        <f>STDEVA(B22:F22)</f>
+        <f t="shared" si="8"/>
         <v>2.5884358211089569E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>2*A22</f>
+        <f t="shared" si="9"/>
         <v>16384</v>
       </c>
       <c r="B23">
@@ -13013,17 +13688,17 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G23">
-        <f>AVERAGE(B23:F23)</f>
+        <f t="shared" si="7"/>
         <v>1.4799999999999999E-2</v>
       </c>
       <c r="H23">
-        <f>STDEVA(B23:F23)</f>
+        <f t="shared" si="8"/>
         <v>3.7682887362833553E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>2*A23</f>
+        <f t="shared" si="9"/>
         <v>32768</v>
       </c>
       <c r="B24">
@@ -13042,17 +13717,17 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="G24">
-        <f>AVERAGE(B24:F24)</f>
+        <f t="shared" si="7"/>
         <v>2.9199999999999997E-2</v>
       </c>
       <c r="H24">
-        <f>STDEVA(B24:F24)</f>
+        <f t="shared" si="8"/>
         <v>1.5865055940651459E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>2*A24</f>
+        <f t="shared" si="9"/>
         <v>65536</v>
       </c>
       <c r="B25">
@@ -13071,17 +13746,17 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G25">
-        <f>AVERAGE(B25:F25)</f>
+        <f t="shared" si="7"/>
         <v>3.9400000000000004E-2</v>
       </c>
       <c r="H25">
-        <f>STDEVA(B25:F25)</f>
+        <f t="shared" si="8"/>
         <v>8.0187280786917677E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>2*A25</f>
+        <f t="shared" si="9"/>
         <v>131072</v>
       </c>
       <c r="B26">
@@ -13100,17 +13775,17 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="G26">
-        <f>AVERAGE(B26:F26)</f>
+        <f t="shared" si="7"/>
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="H26">
-        <f>STDEVA(B26:F26)</f>
+        <f t="shared" si="8"/>
         <v>1.1916375287812975E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>2*A26</f>
+        <f t="shared" si="9"/>
         <v>262144</v>
       </c>
       <c r="B27">
@@ -13129,17 +13804,17 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G27">
-        <f>AVERAGE(B27:F27)</f>
+        <f t="shared" si="7"/>
         <v>8.9200000000000002E-2</v>
       </c>
       <c r="H27">
-        <f>STDEVA(B27:F27)</f>
+        <f t="shared" si="8"/>
         <v>5.4037024344425182E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>2*A27</f>
+        <f t="shared" si="9"/>
         <v>524288</v>
       </c>
       <c r="B28">
@@ -13158,17 +13833,17 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="G28">
-        <f>AVERAGE(B28:F28)</f>
+        <f t="shared" si="7"/>
         <v>0.14899999999999999</v>
       </c>
       <c r="H28">
-        <f>STDEVA(B28:F28)</f>
+        <f t="shared" si="8"/>
         <v>1.232882800593795E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>2*A28</f>
+        <f t="shared" si="9"/>
         <v>1048576</v>
       </c>
       <c r="B29">
@@ -13187,11 +13862,11 @@
         <v>0.218</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(B29:F29)</f>
+        <f t="shared" si="7"/>
         <v>0.2452</v>
       </c>
       <c r="H29">
-        <f>STDEVA(B29:F29)</f>
+        <f t="shared" si="8"/>
         <v>1.8430952227163962E-2</v>
       </c>
     </row>
@@ -13231,153 +13906,318 @@
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="G33" t="e">
+      <c r="B33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D33">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G33">
         <f>AVERAGE(B33:F33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" t="e">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="H33">
         <f>STDEVA(B33:F33)</f>
-        <v>#DIV/0!</v>
+        <v>1.0954451150103322E-3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>2*A33</f>
+        <f t="shared" ref="A34:A43" si="10">2*A33</f>
         <v>2048</v>
       </c>
-      <c r="G34" t="e">
-        <f t="shared" ref="G34:G43" si="1">AVERAGE(B34:F34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" t="e">
-        <f t="shared" ref="H34:H43" si="2">STDEVA(B34:F34)</f>
-        <v>#DIV/0!</v>
+      <c r="B34">
+        <v>2E-3</v>
+      </c>
+      <c r="C34">
+        <v>1E-3</v>
+      </c>
+      <c r="D34">
+        <v>1E-3</v>
+      </c>
+      <c r="E34">
+        <v>2E-3</v>
+      </c>
+      <c r="F34">
+        <v>1E-3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G43" si="11">AVERAGE(B34:F34)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H43" si="12">STDEVA(B34:F34)</f>
+        <v>5.4772255750516611E-4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>2*A34</f>
+        <f t="shared" si="10"/>
         <v>4096</v>
       </c>
-      <c r="G35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B35">
+        <v>2E-3</v>
+      </c>
+      <c r="C35">
+        <v>2E-3</v>
+      </c>
+      <c r="D35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E35">
+        <v>2E-3</v>
+      </c>
+      <c r="F35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>1.7320508075688778E-3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>2*A35</f>
+        <f t="shared" si="10"/>
         <v>8192</v>
       </c>
-      <c r="G36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="12"/>
+        <v>8.3666002653407553E-4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>2*A36</f>
+        <f t="shared" si="10"/>
         <v>16384</v>
       </c>
-      <c r="G37" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B37">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.04</v>
+      </c>
+      <c r="D37">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F37">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="12"/>
+        <v>2.6771253239249004E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>2*A37</f>
+        <f t="shared" si="10"/>
         <v>32768</v>
       </c>
-      <c r="G38" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B38">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C38">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.03</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="12"/>
+        <v>5.0172701741086276E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>2*A38</f>
+        <f t="shared" si="10"/>
         <v>65536</v>
       </c>
-      <c r="G39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B39">
+        <v>0.02</v>
+      </c>
+      <c r="C39">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D39">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E39">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F39">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>2.2199999999999998E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="12"/>
+        <v>5.8480766068853942E-3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>2*A39</f>
+        <f t="shared" si="10"/>
         <v>131072</v>
       </c>
-      <c r="G40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B40">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.161</v>
+      </c>
+      <c r="F40">
+        <v>0.254</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>0.22519999999999998</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>4.1154586621663693E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>2*A40</f>
+        <f t="shared" si="10"/>
         <v>262144</v>
       </c>
-      <c r="G41" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B41">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C41">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D41">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E41">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F41">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>8.8600000000000012E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="12"/>
+        <v>9.3968079686668083E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>2*A41</f>
+        <f t="shared" si="10"/>
         <v>524288</v>
       </c>
-      <c r="G42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B42">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E42">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F42">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="11"/>
+        <v>0.11440000000000002</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="12"/>
+        <v>3.7460646016853422E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>2*A42</f>
+        <f t="shared" si="10"/>
         <v>1048576</v>
       </c>
-      <c r="G43" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B43">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="C43">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D43">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F43">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>0.71239999999999992</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>0.13966674622113981</v>
       </c>
     </row>
   </sheetData>
